--- a/Complete-spreadsheets/TASK/Fz-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/Fz-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96E418-D304-42AF-8878-54682CDDE691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7AD71-D561-4873-96D7-A3586B753AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,23 +502,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>200.44346361564399</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43.406973338423413</v>
-      </c>
-      <c r="D2" s="3">
-        <v>7.0698062511590658</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.0674476493075131</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.7130977859858509</v>
+      <c r="B2" s="4">
+        <v>1447.8475771571541</v>
+      </c>
+      <c r="C2" s="4">
+        <v>95.571715181976117</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11.642852558136211</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.8710240327308658</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.0158400748474068</v>
       </c>
       <c r="G2">
-        <v>255.70078864051979</v>
+        <v>1560.949009004845</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -541,22 +541,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>1447.8475771571541</v>
+        <v>121.4478995229852</v>
       </c>
       <c r="C3" s="4">
-        <v>95.571715181976117</v>
+        <v>20.98497306022281</v>
       </c>
       <c r="D3" s="4">
-        <v>11.642852558136211</v>
+        <v>4.9355100024080851</v>
       </c>
       <c r="E3" s="4">
-        <v>3.8710240327308658</v>
+        <v>3.1762504335233199</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0158400748474068</v>
+        <v>2.0850010924806242</v>
       </c>
       <c r="G3">
-        <v>1560.949009004845</v>
+        <v>152.62963411161991</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>121.4478995229852</v>
+        <v>11.45093683135468</v>
       </c>
       <c r="C4" s="4">
-        <v>20.98497306022281</v>
+        <v>56.856561472887719</v>
       </c>
       <c r="D4" s="4">
-        <v>4.9355100024080851</v>
+        <v>8.6252219279178544</v>
       </c>
       <c r="E4" s="4">
-        <v>3.1762504335233199</v>
+        <v>5.6333719409254188</v>
       </c>
       <c r="F4" s="4">
-        <v>2.0850010924806242</v>
+        <v>3.4013306622569388</v>
       </c>
       <c r="G4">
-        <v>152.62963411161991</v>
+        <v>85.967422835342589</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -616,23 +616,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>61.083300377795133</v>
-      </c>
-      <c r="C5" s="3">
-        <v>46.511110722748079</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.3364070516112281</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.611486366569141</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.3783928461746151</v>
+      <c r="B5" s="4">
+        <v>13.014920578093831</v>
+      </c>
+      <c r="C5" s="4">
+        <v>74.301919472006034</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.7221807476105493</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.2259256728838723</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.8202159245342249</v>
       </c>
       <c r="G5">
-        <v>115.9206973648982</v>
+        <v>101.08516239512851</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -654,23 +654,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>53.909811504158441</v>
-      </c>
-      <c r="C6" s="3">
-        <v>23.74798415524284</v>
-      </c>
-      <c r="D6" s="3">
-        <v>11.129574018692169</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.8197670838209592</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.4960360791208558</v>
+      <c r="B6" s="4">
+        <v>91.989120787911475</v>
+      </c>
+      <c r="C6" s="4">
+        <v>138.4661828451319</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.8507953745032442</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.684948300901894</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.5300505144914851</v>
       </c>
       <c r="G6">
-        <v>95.103172841035246</v>
+        <v>253.52109782293999</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -692,23 +692,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>84.441989334612373</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11.30158106540107</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.9492480998514141</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.0176782008956504</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.7906677617758922</v>
+      <c r="B7" s="4">
+        <v>6.1039553803991904</v>
+      </c>
+      <c r="C7" s="4">
+        <v>97.804114955560038</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.35875685868726</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.1043026110445027</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.7037780494310564</v>
       </c>
       <c r="G7">
-        <v>107.50116446253639</v>
+        <v>117.07490785512201</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -731,22 +731,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>11.45093683135468</v>
+        <v>9.9494274760875197</v>
       </c>
       <c r="C8" s="4">
-        <v>56.856561472887719</v>
+        <v>147.57198614704291</v>
       </c>
       <c r="D8" s="4">
-        <v>8.6252219279178544</v>
+        <v>10.03517986585914</v>
       </c>
       <c r="E8" s="4">
-        <v>5.6333719409254188</v>
+        <v>6.124547258104176</v>
       </c>
       <c r="F8" s="4">
-        <v>3.4013306622569388</v>
+        <v>5.6861833660759666</v>
       </c>
       <c r="G8">
-        <v>85.967422835342589</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>13.014920578093831</v>
+        <v>9.9494274760875197</v>
       </c>
       <c r="C9" s="4">
-        <v>74.301919472006034</v>
+        <v>147.57198614704291</v>
       </c>
       <c r="D9" s="4">
-        <v>4.7221807476105493</v>
+        <v>10.03517986585914</v>
       </c>
       <c r="E9" s="4">
-        <v>5.2259256728838723</v>
+        <v>6.124547258104176</v>
       </c>
       <c r="F9" s="4">
-        <v>3.8202159245342249</v>
+        <v>5.6861833660759666</v>
       </c>
       <c r="G9">
-        <v>101.08516239512851</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -809,23 +809,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>123.0723087031496</v>
-      </c>
-      <c r="C10" s="3">
-        <v>34.933187232725231</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6.4862173727278147</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.289819685390758</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.9862240460062019</v>
+      <c r="B10" s="4">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C10" s="4">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G10">
-        <v>173.76775703999959</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -847,23 +847,23 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>192.96147864763981</v>
-      </c>
-      <c r="C11" s="3">
-        <v>48.30875997467291</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7.1217682590739759</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.1758167141183344</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.1858918930551647</v>
+      <c r="B11" s="4">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C11" s="4">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G11">
-        <v>256.75371548855998</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -886,22 +886,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>91.989120787911475</v>
+        <v>9.9494274760875197</v>
       </c>
       <c r="C12" s="4">
-        <v>138.4661828451319</v>
+        <v>147.57198614704291</v>
       </c>
       <c r="D12" s="4">
-        <v>9.8507953745032442</v>
+        <v>10.03517986585914</v>
       </c>
       <c r="E12" s="4">
-        <v>8.684948300901894</v>
+        <v>6.124547258104176</v>
       </c>
       <c r="F12" s="4">
-        <v>4.5300505144914851</v>
+        <v>5.6861833660759666</v>
       </c>
       <c r="G12">
-        <v>253.52109782293999</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -923,23 +923,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>20.287379308229891</v>
-      </c>
-      <c r="C13" s="3">
-        <v>11.49035886777094</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.6942031119778358</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5.1501763210756586</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.5524473023091936</v>
+      <c r="B13" s="4">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C13" s="4">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G13">
-        <v>48.174564911363532</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -962,22 +962,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>6.1039553803991904</v>
+        <v>9.9494274760875197</v>
       </c>
       <c r="C14" s="4">
-        <v>97.804114955560038</v>
+        <v>147.57198614704291</v>
       </c>
       <c r="D14" s="4">
-        <v>3.35875685868726</v>
+        <v>10.03517986585914</v>
       </c>
       <c r="E14" s="4">
-        <v>5.1043026110445027</v>
+        <v>6.124547258104176</v>
       </c>
       <c r="F14" s="4">
-        <v>4.7037780494310564</v>
+        <v>5.6861833660759666</v>
       </c>
       <c r="G14">
-        <v>117.07490785512201</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -999,23 +999,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>98.633528230646533</v>
-      </c>
-      <c r="C15" s="3">
-        <v>29.79622677171437</v>
-      </c>
-      <c r="D15" s="3">
-        <v>13.958032354788671</v>
-      </c>
-      <c r="E15" s="3">
-        <v>12.912823371141121</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.8279755434833493</v>
+      <c r="B15" s="4">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C15" s="4">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G15">
-        <v>160.12858627177411</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1037,23 +1037,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>54.43315878742871</v>
-      </c>
-      <c r="C16" s="3">
-        <v>16.860058510578199</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8.2926685049167688</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8.6354342254790151</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4.9048127625091666</v>
+      <c r="B16" s="4">
+        <v>9.9494274760875197</v>
+      </c>
+      <c r="C16" s="4">
+        <v>147.57198614704291</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10.03517986585914</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6.124547258104176</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.6861833660759666</v>
       </c>
       <c r="G16">
-        <v>93.126132790911868</v>
+        <v>179.36732411316979</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1075,23 +1075,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>9840.9264335819425</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1003.226231407927</v>
-      </c>
-      <c r="D17" s="3">
-        <v>71.506029529541138</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10.37102086039345</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.9389733306658758</v>
+      <c r="B17" s="4">
+        <v>68.234103253137818</v>
+      </c>
+      <c r="C17" s="4">
+        <v>67.935134671394465</v>
+      </c>
+      <c r="D17" s="4">
+        <v>27.01543160719832</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.1277005361731511</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.7073104613860686</v>
       </c>
       <c r="G17">
-        <v>10930.968688710471</v>
+        <v>176.01968052928979</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1113,23 +1113,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>91.90032007639941</v>
-      </c>
-      <c r="C18" s="3">
-        <v>34.250004808011859</v>
-      </c>
-      <c r="D18" s="3">
-        <v>36.374704511181953</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14.637926205657459</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.0991044883552634</v>
+      <c r="B18" s="4">
+        <v>80.638996061647532</v>
+      </c>
+      <c r="C18" s="4">
+        <v>208.68450095866351</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.5490375718449698</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.3390372763318084</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.102321100031368</v>
       </c>
       <c r="G18">
-        <v>182.26206008960591</v>
+        <v>308.31389296851921</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1151,23 +1151,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>57.899300719167229</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18.806287405263429</v>
-      </c>
-      <c r="D19" s="3">
-        <v>16.189366163094331</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.3749036218432664</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.1529538222296427</v>
+      <c r="B19" s="4">
+        <v>12.513047125981821</v>
+      </c>
+      <c r="C19" s="4">
+        <v>87.772194964313456</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.5747775016100407</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.2748019393110113</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7.2019433598904721</v>
       </c>
       <c r="G19">
-        <v>106.4228117315979</v>
+        <v>119.3367648911068</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>24</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1189,23 +1189,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>231.6823727423409</v>
-      </c>
-      <c r="C20" s="3">
-        <v>87.395043801273118</v>
-      </c>
-      <c r="D20" s="3">
-        <v>18.73730154701974</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8.0192289892621194</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5.3521631787143713</v>
+      <c r="B20" s="4">
+        <v>154.8053906820501</v>
+      </c>
+      <c r="C20" s="4">
+        <v>66.674247008231077</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24.680889355063389</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18.38178066324226</v>
+      </c>
+      <c r="F20" s="4">
+        <v>14.838159617643971</v>
       </c>
       <c r="G20">
-        <v>351.18611025861031</v>
+        <v>279.38046732623081</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1228,22 +1228,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>9.9494274760875197</v>
+        <v>691.646858877878</v>
       </c>
       <c r="C21" s="4">
-        <v>147.57198614704291</v>
+        <v>120.6793576909495</v>
       </c>
       <c r="D21" s="4">
-        <v>10.03517986585914</v>
+        <v>20.538092215793561</v>
       </c>
       <c r="E21" s="4">
-        <v>6.124547258104176</v>
+        <v>25.353299969143851</v>
       </c>
       <c r="F21" s="4">
-        <v>5.6861833660759666</v>
+        <v>14.97236859099665</v>
       </c>
       <c r="G21">
-        <v>179.36732411316979</v>
+        <v>873.18997734476136</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>9.9494274760875197</v>
+        <v>10.84708838790424</v>
       </c>
       <c r="C22" s="4">
-        <v>147.57198614704291</v>
+        <v>77.024879796395879</v>
       </c>
       <c r="D22" s="4">
-        <v>10.03517986585914</v>
+        <v>6.7680464774664113</v>
       </c>
       <c r="E22" s="4">
-        <v>6.124547258104176</v>
+        <v>10.024135588070219</v>
       </c>
       <c r="F22" s="4">
-        <v>5.6861833660759666</v>
+        <v>20.336893965483551</v>
       </c>
       <c r="G22">
-        <v>179.36732411316979</v>
+        <v>125.00104421532031</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1304,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>9.9494274760875197</v>
+        <v>3592.228667497629</v>
       </c>
       <c r="C23" s="4">
-        <v>147.57198614704291</v>
+        <v>624.41179045869444</v>
       </c>
       <c r="D23" s="4">
-        <v>10.03517986585914</v>
+        <v>208.8868015261977</v>
       </c>
       <c r="E23" s="4">
-        <v>6.124547258104176</v>
+        <v>291.28989666992408</v>
       </c>
       <c r="F23" s="4">
-        <v>5.6861833660759666</v>
+        <v>87.345748303046179</v>
       </c>
       <c r="G23">
-        <v>179.36732411316979</v>
+        <v>4804.1629044554911</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1341,23 +1341,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C24" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D24" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B24" s="3">
+        <v>200.44346361564399</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43.406973338423413</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7.0698062511590658</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.0674476493075131</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.7130977859858509</v>
       </c>
       <c r="G24">
-        <v>179.36732411316979</v>
+        <v>255.70078864051979</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1379,23 +1379,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C25" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D25" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E25" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B25" s="3">
+        <v>61.083300377795133</v>
+      </c>
+      <c r="C25" s="3">
+        <v>46.511110722748079</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.3364070516112281</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.611486366569141</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.3783928461746151</v>
       </c>
       <c r="G25">
-        <v>179.36732411316979</v>
+        <v>115.9206973648982</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1417,23 +1417,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C26" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B26" s="3">
+        <v>53.909811504158441</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23.74798415524284</v>
+      </c>
+      <c r="D26" s="3">
+        <v>11.129574018692169</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.8197670838209592</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.4960360791208558</v>
       </c>
       <c r="G26">
-        <v>179.36732411316979</v>
+        <v>95.103172841035246</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1455,23 +1455,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C27" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D27" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B27" s="3">
+        <v>84.441989334612373</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11.30158106540107</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.9492480998514141</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.0176782008956504</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.7906677617758922</v>
       </c>
       <c r="G27">
-        <v>179.36732411316979</v>
+        <v>107.50116446253639</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1493,23 +1493,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C28" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B28" s="3">
+        <v>123.0723087031496</v>
+      </c>
+      <c r="C28" s="3">
+        <v>34.933187232725231</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6.4862173727278147</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.289819685390758</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.9862240460062019</v>
       </c>
       <c r="G28">
-        <v>179.36732411316979</v>
+        <v>173.76775703999959</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>17</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1531,23 +1531,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>9.9494274760875197</v>
-      </c>
-      <c r="C29" s="4">
-        <v>147.57198614704291</v>
-      </c>
-      <c r="D29" s="4">
-        <v>10.03517986585914</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6.124547258104176</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5.6861833660759666</v>
+      <c r="B29" s="3">
+        <v>192.96147864763981</v>
+      </c>
+      <c r="C29" s="3">
+        <v>48.30875997467291</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7.1217682590739759</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.1758167141183344</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.1858918930551647</v>
       </c>
       <c r="G29">
-        <v>179.36732411316979</v>
+        <v>256.75371548855998</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>22</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1569,23 +1569,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>68.234103253137818</v>
-      </c>
-      <c r="C30" s="4">
-        <v>67.935134671394465</v>
-      </c>
-      <c r="D30" s="4">
-        <v>27.01543160719832</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7.1277005361731511</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5.7073104613860686</v>
+      <c r="B30" s="3">
+        <v>20.287379308229891</v>
+      </c>
+      <c r="C30" s="3">
+        <v>11.49035886777094</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.6942031119778358</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.1501763210756586</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4.5524473023091936</v>
       </c>
       <c r="G30">
-        <v>176.01968052928979</v>
+        <v>48.174564911363532</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>18</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1608,22 +1608,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>209.15317347313021</v>
+        <v>98.633528230646533</v>
       </c>
       <c r="C31" s="3">
-        <v>48.63422448616474</v>
+        <v>29.79622677171437</v>
       </c>
       <c r="D31" s="3">
-        <v>13.15199162736873</v>
+        <v>13.958032354788671</v>
       </c>
       <c r="E31" s="3">
-        <v>6.9941695309758964</v>
+        <v>12.912823371141121</v>
       </c>
       <c r="F31" s="3">
-        <v>5.8511935076009252</v>
+        <v>4.8279755434833493</v>
       </c>
       <c r="G31">
-        <v>283.78475262524051</v>
+        <v>160.12858627177411</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1645,23 +1645,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>80.638996061647532</v>
-      </c>
-      <c r="C32" s="4">
-        <v>208.68450095866351</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5.5490375718449698</v>
-      </c>
-      <c r="E32" s="4">
-        <v>7.3390372763318084</v>
-      </c>
-      <c r="F32" s="4">
-        <v>6.102321100031368</v>
+      <c r="B32" s="3">
+        <v>54.43315878742871</v>
+      </c>
+      <c r="C32" s="3">
+        <v>16.860058510578199</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8.2926685049167688</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8.6354342254790151</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.9048127625091666</v>
       </c>
       <c r="G32">
-        <v>308.31389296851921</v>
+        <v>93.126132790911868</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1684,22 +1684,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>330.75762475366639</v>
+        <v>9840.9264335819425</v>
       </c>
       <c r="C33" s="3">
-        <v>63.349572622801652</v>
+        <v>1003.226231407927</v>
       </c>
       <c r="D33" s="3">
-        <v>8.1942629344592746</v>
+        <v>71.506029529541138</v>
       </c>
       <c r="E33" s="3">
-        <v>8.9732999211735383</v>
+        <v>10.37102086039345</v>
       </c>
       <c r="F33" s="3">
-        <v>6.4228868319629822</v>
+        <v>4.9389733306658758</v>
       </c>
       <c r="G33">
-        <v>417.69764706406391</v>
+        <v>10930.968688710471</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1722,22 +1722,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>35.615955744142099</v>
+        <v>91.90032007639941</v>
       </c>
       <c r="C34" s="3">
-        <v>14.43488853683086</v>
+        <v>34.250004808011859</v>
       </c>
       <c r="D34" s="3">
-        <v>6.2268318284270991</v>
+        <v>36.374704511181953</v>
       </c>
       <c r="E34" s="3">
-        <v>6.1300841047527204</v>
+        <v>14.637926205657459</v>
       </c>
       <c r="F34" s="3">
-        <v>6.4546751536938523</v>
+        <v>5.0991044883552634</v>
       </c>
       <c r="G34">
-        <v>68.862435367846643</v>
+        <v>182.26206008960591</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1760,22 +1760,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>59.196026246608831</v>
+        <v>57.899300719167229</v>
       </c>
       <c r="C35" s="3">
-        <v>19.261850164935488</v>
+        <v>18.806287405263429</v>
       </c>
       <c r="D35" s="3">
-        <v>7.7489196850547408</v>
+        <v>16.189366163094331</v>
       </c>
       <c r="E35" s="3">
-        <v>7.2945359715976501</v>
+        <v>8.3749036218432664</v>
       </c>
       <c r="F35" s="3">
-        <v>6.5529908804058019</v>
+        <v>5.1529538222296427</v>
       </c>
       <c r="G35">
-        <v>100.0543229486025</v>
+        <v>106.4228117315979</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1797,23 +1797,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>12.513047125981821</v>
-      </c>
-      <c r="C36" s="4">
-        <v>87.772194964313456</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4.5747775016100407</v>
-      </c>
-      <c r="E36" s="4">
-        <v>7.2748019393110113</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.2019433598904721</v>
+      <c r="B36" s="3">
+        <v>231.6823727423409</v>
+      </c>
+      <c r="C36" s="3">
+        <v>87.395043801273118</v>
+      </c>
+      <c r="D36" s="3">
+        <v>18.73730154701974</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8.0192289892621194</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5.3521631787143713</v>
       </c>
       <c r="G36">
-        <v>119.3367648911068</v>
+        <v>351.18611025861031</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1836,22 +1836,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>40.771453841316607</v>
+        <v>209.15317347313021</v>
       </c>
       <c r="C37" s="3">
-        <v>49.00943603447206</v>
+        <v>48.63422448616474</v>
       </c>
       <c r="D37" s="3">
-        <v>18.715736410723199</v>
+        <v>13.15199162736873</v>
       </c>
       <c r="E37" s="3">
-        <v>7.1746298653745102</v>
+        <v>6.9941695309758964</v>
       </c>
       <c r="F37" s="3">
-        <v>7.6432793719370444</v>
+        <v>5.8511935076009252</v>
       </c>
       <c r="G37">
-        <v>123.31453552382349</v>
+        <v>283.78475262524051</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1874,22 +1874,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>176.09166691299399</v>
+        <v>330.75762475366639</v>
       </c>
       <c r="C38" s="3">
-        <v>37.111946966285181</v>
+        <v>63.349572622801652</v>
       </c>
       <c r="D38" s="3">
-        <v>14.70236645028834</v>
+        <v>8.1942629344592746</v>
       </c>
       <c r="E38" s="3">
-        <v>10.42667890079519</v>
+        <v>8.9732999211735383</v>
       </c>
       <c r="F38" s="3">
-        <v>9.5813606193528091</v>
+        <v>6.4228868319629822</v>
       </c>
       <c r="G38">
-        <v>247.9140198497156</v>
+        <v>417.69764706406391</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1912,22 +1912,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>1827.833958187475</v>
+        <v>35.615955744142099</v>
       </c>
       <c r="C39" s="3">
-        <v>299.7614257948951</v>
+        <v>14.43488853683086</v>
       </c>
       <c r="D39" s="3">
-        <v>69.657418318638278</v>
+        <v>6.2268318284270991</v>
       </c>
       <c r="E39" s="3">
-        <v>29.001398708736009</v>
+        <v>6.1300841047527204</v>
       </c>
       <c r="F39" s="3">
-        <v>11.10845803994043</v>
+        <v>6.4546751536938523</v>
       </c>
       <c r="G39">
-        <v>2237.3626590496851</v>
+        <v>68.862435367846643</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1950,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>370.55343386504887</v>
+        <v>59.196026246608831</v>
       </c>
       <c r="C40" s="3">
-        <v>115.82701468955069</v>
+        <v>19.261850164935488</v>
       </c>
       <c r="D40" s="3">
-        <v>18.61483780497365</v>
+        <v>7.7489196850547408</v>
       </c>
       <c r="E40" s="3">
-        <v>9.2187216990653962</v>
+        <v>7.2945359715976501</v>
       </c>
       <c r="F40" s="3">
-        <v>11.214035835100701</v>
+        <v>6.5529908804058019</v>
       </c>
       <c r="G40">
-        <v>525.42804389373941</v>
+        <v>100.0543229486025</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1987,23 +1987,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>154.8053906820501</v>
-      </c>
-      <c r="C41" s="4">
-        <v>66.674247008231077</v>
-      </c>
-      <c r="D41" s="4">
-        <v>24.680889355063389</v>
-      </c>
-      <c r="E41" s="4">
-        <v>18.38178066324226</v>
-      </c>
-      <c r="F41" s="4">
-        <v>14.838159617643971</v>
+      <c r="B41" s="3">
+        <v>40.771453841316607</v>
+      </c>
+      <c r="C41" s="3">
+        <v>49.00943603447206</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18.715736410723199</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7.1746298653745102</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.6432793719370444</v>
       </c>
       <c r="G41">
-        <v>279.38046732623081</v>
+        <v>123.31453552382349</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>19</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2025,23 +2025,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>691.646858877878</v>
-      </c>
-      <c r="C42" s="4">
-        <v>120.6793576909495</v>
-      </c>
-      <c r="D42" s="4">
-        <v>20.538092215793561</v>
-      </c>
-      <c r="E42" s="4">
-        <v>25.353299969143851</v>
-      </c>
-      <c r="F42" s="4">
-        <v>14.97236859099665</v>
+      <c r="B42" s="3">
+        <v>176.09166691299399</v>
+      </c>
+      <c r="C42" s="3">
+        <v>37.111946966285181</v>
+      </c>
+      <c r="D42" s="3">
+        <v>14.70236645028834</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10.42667890079519</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9.5813606193528091</v>
       </c>
       <c r="G42">
-        <v>873.18997734476136</v>
+        <v>247.9140198497156</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>15</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2063,23 +2063,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>10.84708838790424</v>
-      </c>
-      <c r="C43" s="4">
-        <v>77.024879796395879</v>
-      </c>
-      <c r="D43" s="4">
-        <v>6.7680464774664113</v>
-      </c>
-      <c r="E43" s="4">
-        <v>10.024135588070219</v>
-      </c>
-      <c r="F43" s="4">
-        <v>20.336893965483551</v>
+      <c r="B43" s="3">
+        <v>1827.833958187475</v>
+      </c>
+      <c r="C43" s="3">
+        <v>299.7614257948951</v>
+      </c>
+      <c r="D43" s="3">
+        <v>69.657418318638278</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29.001398708736009</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11.10845803994043</v>
       </c>
       <c r="G43">
-        <v>125.00104421532031</v>
+        <v>2237.3626590496851</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>23</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2102,22 +2102,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>800.87027921171739</v>
+        <v>370.55343386504887</v>
       </c>
       <c r="C44" s="3">
-        <v>155.8555607916752</v>
+        <v>115.82701468955069</v>
       </c>
       <c r="D44" s="3">
-        <v>51.650419601526778</v>
+        <v>18.61483780497365</v>
       </c>
       <c r="E44" s="3">
-        <v>21.612719911901291</v>
+        <v>9.2187216990653962</v>
       </c>
       <c r="F44" s="3">
-        <v>21.358882009509401</v>
+        <v>11.214035835100701</v>
       </c>
       <c r="G44">
-        <v>1051.34786152633</v>
+        <v>525.42804389373941</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2140,22 +2140,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>1407.4353978057591</v>
+        <v>800.87027921171739</v>
       </c>
       <c r="C45" s="3">
-        <v>262.10670876952872</v>
+        <v>155.8555607916752</v>
       </c>
       <c r="D45" s="3">
-        <v>70.985653454401472</v>
+        <v>51.650419601526778</v>
       </c>
       <c r="E45" s="3">
-        <v>39.339210846734943</v>
+        <v>21.612719911901291</v>
       </c>
       <c r="F45" s="3">
-        <v>21.543073002087699</v>
+        <v>21.358882009509401</v>
       </c>
       <c r="G45">
-        <v>1801.4100438785119</v>
+        <v>1051.34786152633</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2177,23 +2177,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>3592.228667497629</v>
-      </c>
-      <c r="C46" s="4">
-        <v>624.41179045869444</v>
-      </c>
-      <c r="D46" s="4">
-        <v>208.8868015261977</v>
-      </c>
-      <c r="E46" s="4">
-        <v>291.28989666992408</v>
-      </c>
-      <c r="F46" s="4">
-        <v>87.345748303046179</v>
+      <c r="B46" s="3">
+        <v>1407.4353978057591</v>
+      </c>
+      <c r="C46" s="3">
+        <v>262.10670876952872</v>
+      </c>
+      <c r="D46" s="3">
+        <v>70.985653454401472</v>
+      </c>
+      <c r="E46" s="3">
+        <v>39.339210846734943</v>
+      </c>
+      <c r="F46" s="3">
+        <v>21.543073002087699</v>
       </c>
       <c r="G46">
-        <v>4804.1629044554911</v>
+        <v>1801.4100438785119</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>24</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2364,8 +2364,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
